--- a/Architect and Design/Timelog/Time_log_HuyHuynh.xlsx
+++ b/Architect and Design/Timelog/Time_log_HuyHuynh.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="60">
   <si>
     <t>Week</t>
   </si>
@@ -193,6 +193,12 @@
   </si>
   <si>
     <t>Meeting with Giang Nguyen for coding (Sale function)</t>
+  </si>
+  <si>
+    <t>Team Meeting: Review architecture document</t>
+  </si>
+  <si>
+    <t>Fix C&amp;C View, Module View, Draw View Mapping, Decision design C&amp;C View, Decision design Module View, Architecture Decision Design</t>
   </si>
 </sst>
 </file>
@@ -439,12 +445,165 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="18" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -459,159 +618,6 @@
     </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -916,44 +922,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="G88" sqref="G88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" style="27" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="27"/>
-    <col min="3" max="3" width="10.7109375" style="27" customWidth="1"/>
-    <col min="4" max="6" width="9.140625" style="27"/>
-    <col min="7" max="7" width="14" style="27" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" style="27" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" style="27" customWidth="1"/>
-    <col min="10" max="10" width="27.42578125" style="27" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="27"/>
-    <col min="12" max="12" width="26" style="27" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="27"/>
+    <col min="1" max="1" width="7.42578125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="12"/>
+    <col min="3" max="3" width="10.7109375" style="12" customWidth="1"/>
+    <col min="4" max="6" width="9.140625" style="12"/>
+    <col min="7" max="7" width="14" style="12" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" style="12" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" style="12" customWidth="1"/>
+    <col min="10" max="10" width="27.42578125" style="12" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="12"/>
+    <col min="12" max="12" width="26" style="12" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="13" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="D3" s="28"/>
-      <c r="L3" s="29" t="s">
+      <c r="D3" s="13"/>
+      <c r="L3" s="14" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="15" t="s">
         <v>25</v>
       </c>
       <c r="G4" s="5">
@@ -961,55 +967,55 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="31"/>
-      <c r="L5" s="32" t="s">
+      <c r="C5" s="16"/>
+      <c r="L5" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="32" t="s">
+      <c r="M5" s="17" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="34" t="s">
+      <c r="A6" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="34" t="s">
+      <c r="F6" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="34" t="s">
+      <c r="G6" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="34" t="s">
+      <c r="H6" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="34" t="s">
+      <c r="I6" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="34" t="s">
+      <c r="J6" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="L6" s="27" t="s">
+      <c r="L6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="M6" s="35">
+      <c r="M6" s="20">
         <f>SUM(F7:F12) + F16 + F20/2+F87</f>
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14">
+      <c r="A7" s="65">
         <v>1</v>
       </c>
       <c r="B7" s="1">
@@ -1033,16 +1039,16 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
-      <c r="L7" s="27" t="s">
+      <c r="L7" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="M7" s="35">
+      <c r="M7" s="20">
         <f>SUM(F14:F30)</f>
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="15"/>
+      <c r="A8" s="66"/>
       <c r="B8" s="1">
         <v>41045</v>
       </c>
@@ -1066,16 +1072,16 @@
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
-      <c r="L8" s="27" t="s">
+      <c r="L8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="M8" s="35">
+      <c r="M8" s="20">
         <f>SUM(F34:F46)+SUM(F67:F75) + SUM(F95:F104)</f>
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="15"/>
+      <c r="A9" s="66"/>
       <c r="B9" s="1">
         <v>41046</v>
       </c>
@@ -1097,10 +1103,10 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-      <c r="M9" s="35"/>
+      <c r="M9" s="20"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="15"/>
+      <c r="A10" s="66"/>
       <c r="B10" s="1">
         <v>41047</v>
       </c>
@@ -1122,48 +1128,48 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="M10" s="35"/>
+      <c r="M10" s="20"/>
     </row>
     <row r="11" spans="1:13" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="15"/>
-      <c r="B11" s="17">
+      <c r="A11" s="66"/>
+      <c r="B11" s="68">
         <v>41048</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="53">
         <v>0.8125</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="53">
         <v>0.875</v>
       </c>
-      <c r="E11" s="12">
-        <v>0</v>
-      </c>
-      <c r="F11" s="12">
+      <c r="E11" s="50">
+        <v>0</v>
+      </c>
+      <c r="F11" s="50">
         <v>1.5</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
       <c r="J11" s="3"/>
-      <c r="M11" s="35"/>
+      <c r="M11" s="20"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="16"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
+      <c r="A12" s="67"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
       <c r="J12" s="3"/>
-      <c r="L12" s="27" t="s">
+      <c r="L12" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M12" s="35">
+      <c r="M12" s="20">
         <f>SUM(F47:F66)</f>
         <v>41</v>
       </c>
@@ -1179,164 +1185,164 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="L13" s="27" t="s">
+      <c r="L13" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="M13" s="35">
+      <c r="M13" s="20">
         <f xml:space="preserve"> SUM(F47:F66) + F92 + F94</f>
         <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
-      <c r="B14" s="21">
+      <c r="B14" s="47">
         <v>41051</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="56">
         <v>0.875</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="56">
         <v>0.95833333333333337</v>
       </c>
-      <c r="E14" s="25">
-        <v>0</v>
-      </c>
-      <c r="F14" s="25">
+      <c r="E14" s="59">
+        <v>0</v>
+      </c>
+      <c r="F14" s="59">
         <v>2</v>
       </c>
-      <c r="G14" s="25" t="s">
+      <c r="G14" s="59" t="s">
         <v>29</v>
       </c>
       <c r="H14" s="4"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="L14" s="27" t="s">
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="L14" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="M14" s="35">
+      <c r="M14" s="20">
         <f>SUM(M6:M13)</f>
-        <v>145</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="L15" s="27" t="s">
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="L15" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="M15" s="35">
+      <c r="M15" s="20">
         <f>M14/8</f>
-        <v>18.125</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>2</v>
       </c>
-      <c r="B16" s="21">
+      <c r="B16" s="47">
         <v>41052</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="56">
         <v>0.79166666666666663</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="56">
         <v>0.5</v>
       </c>
-      <c r="E16" s="25">
-        <v>0</v>
-      </c>
-      <c r="F16" s="25">
+      <c r="E16" s="59">
+        <v>0</v>
+      </c>
+      <c r="F16" s="59">
         <v>5</v>
       </c>
-      <c r="G16" s="25" t="s">
+      <c r="G16" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="H16" s="12"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
     </row>
     <row r="17" spans="1:10" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="36"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
-      <c r="B18" s="21">
+      <c r="A18" s="21"/>
+      <c r="B18" s="47">
         <v>41053</v>
       </c>
-      <c r="C18" s="23">
+      <c r="C18" s="56">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D18" s="56">
         <v>0.91666666666666663</v>
       </c>
-      <c r="E18" s="25">
-        <v>0</v>
-      </c>
-      <c r="F18" s="25">
+      <c r="E18" s="59">
+        <v>0</v>
+      </c>
+      <c r="F18" s="59">
         <v>2</v>
       </c>
-      <c r="G18" s="25" t="s">
+      <c r="G18" s="59" t="s">
         <v>34</v>
       </c>
       <c r="H18" s="4"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="36"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
+      <c r="A19" s="21"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="61"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="36"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="36"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
       <c r="H21" s="3"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="61"/>
     </row>
     <row r="22" spans="1:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="36"/>
+      <c r="A22" s="21"/>
       <c r="B22" s="6"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -1348,167 +1354,167 @@
       <c r="J22" s="9"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="37"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
     </row>
     <row r="24" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
       <c r="H24" s="4"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="59"/>
     </row>
     <row r="25" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="61"/>
     </row>
     <row r="26" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
-      <c r="B26" s="38"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="42"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
     </row>
     <row r="27" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
-      <c r="B27" s="21">
+      <c r="B27" s="47">
         <v>41057</v>
       </c>
-      <c r="C27" s="19">
+      <c r="C27" s="53">
         <v>0.85416666666666663</v>
       </c>
-      <c r="D27" s="19">
+      <c r="D27" s="53">
         <v>0.9375</v>
       </c>
-      <c r="E27" s="12">
-        <v>0</v>
-      </c>
-      <c r="F27" s="12">
+      <c r="E27" s="50">
+        <v>0</v>
+      </c>
+      <c r="F27" s="50">
         <v>2</v>
       </c>
-      <c r="G27" s="12" t="s">
+      <c r="G27" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="43"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="60"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="36"/>
-      <c r="B28" s="44"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="46"/>
-      <c r="J28" s="43"/>
+      <c r="A28" s="21"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="60"/>
     </row>
     <row r="29" spans="1:10" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="36"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="46"/>
-      <c r="J29" s="43"/>
+      <c r="A29" s="21"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="60"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="36"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="43"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="60"/>
     </row>
     <row r="31" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="36"/>
-      <c r="B31" s="44">
+      <c r="A31" s="21"/>
+      <c r="B31" s="49">
         <v>41058</v>
       </c>
-      <c r="C31" s="19">
+      <c r="C31" s="53">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D31" s="19">
+      <c r="D31" s="53">
         <v>0.70833333333333337</v>
       </c>
-      <c r="E31" s="12">
-        <v>0</v>
-      </c>
-      <c r="F31" s="12">
+      <c r="E31" s="50">
+        <v>0</v>
+      </c>
+      <c r="F31" s="50">
         <v>4</v>
       </c>
-      <c r="G31" s="25" t="s">
+      <c r="G31" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="25"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="59"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="36"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="26"/>
+      <c r="A32" s="21"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="61"/>
+      <c r="J32" s="61"/>
     </row>
     <row r="33" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="36"/>
-      <c r="B33" s="47">
+      <c r="A33" s="21"/>
+      <c r="B33" s="28">
         <v>41058</v>
       </c>
-      <c r="C33" s="48">
+      <c r="C33" s="29">
         <v>0.875</v>
       </c>
-      <c r="D33" s="48">
+      <c r="D33" s="29">
         <v>0.5</v>
       </c>
-      <c r="E33" s="49">
-        <v>0</v>
-      </c>
-      <c r="F33" s="49">
+      <c r="E33" s="30">
+        <v>0</v>
+      </c>
+      <c r="F33" s="30">
         <v>3</v>
       </c>
-      <c r="G33" s="49" t="s">
+      <c r="G33" s="30" t="s">
         <v>35</v>
       </c>
       <c r="H33" s="3"/>
@@ -1516,201 +1522,201 @@
       <c r="J33" s="3"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="36"/>
-      <c r="B34" s="21">
+      <c r="A34" s="21"/>
+      <c r="B34" s="47">
         <v>41060</v>
       </c>
-      <c r="C34" s="19">
+      <c r="C34" s="53">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D34" s="19">
+      <c r="D34" s="53">
         <v>0.70833333333333337</v>
       </c>
-      <c r="E34" s="12">
-        <v>0</v>
-      </c>
-      <c r="F34" s="12">
+      <c r="E34" s="50">
+        <v>0</v>
+      </c>
+      <c r="F34" s="50">
         <v>3</v>
       </c>
-      <c r="G34" s="12" t="s">
+      <c r="G34" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="H34" s="12"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="12"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="50"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="36"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="46"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="46"/>
+      <c r="A35" s="21"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="60"/>
+      <c r="J35" s="51"/>
     </row>
     <row r="36" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="36"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="13"/>
+      <c r="A36" s="21"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="61"/>
+      <c r="J36" s="52"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="36"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="50"/>
-      <c r="D37" s="50"/>
+      <c r="A37" s="21"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
-      <c r="I37" s="25"/>
+      <c r="I37" s="59"/>
       <c r="J37" s="4"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="36"/>
-      <c r="B38" s="44"/>
+      <c r="A38" s="21"/>
+      <c r="B38" s="49"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
-      <c r="I38" s="43"/>
+      <c r="I38" s="60"/>
       <c r="J38" s="4"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="37"/>
-      <c r="B39" s="22"/>
+      <c r="A39" s="22"/>
+      <c r="B39" s="48"/>
       <c r="C39" s="2"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
-      <c r="I39" s="26"/>
+      <c r="I39" s="61"/>
       <c r="J39" s="3"/>
     </row>
     <row r="40" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
-      <c r="B40" s="21">
+      <c r="B40" s="47">
         <v>41066</v>
       </c>
-      <c r="C40" s="19">
+      <c r="C40" s="53">
         <v>0.875</v>
       </c>
-      <c r="D40" s="19">
+      <c r="D40" s="53">
         <v>0.9375</v>
       </c>
-      <c r="E40" s="12">
-        <v>0</v>
-      </c>
-      <c r="F40" s="12">
+      <c r="E40" s="50">
+        <v>0</v>
+      </c>
+      <c r="F40" s="50">
         <v>1.5</v>
       </c>
-      <c r="G40" s="12" t="s">
+      <c r="G40" s="50" t="s">
         <v>36</v>
       </c>
       <c r="H40" s="4"/>
-      <c r="I40" s="25"/>
+      <c r="I40" s="59"/>
       <c r="J40" s="4"/>
     </row>
     <row r="41" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
-      <c r="B41" s="44"/>
-      <c r="C41" s="45"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="46"/>
-      <c r="F41" s="46"/>
-      <c r="G41" s="46"/>
+      <c r="B41" s="49"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="51"/>
       <c r="H41" s="4"/>
-      <c r="I41" s="43"/>
+      <c r="I41" s="60"/>
       <c r="J41" s="4"/>
     </row>
     <row r="42" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="11">
         <v>4</v>
       </c>
-      <c r="B42" s="22"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="55"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="52"/>
+      <c r="F42" s="52"/>
+      <c r="G42" s="52"/>
       <c r="H42" s="3"/>
-      <c r="I42" s="26"/>
+      <c r="I42" s="61"/>
       <c r="J42" s="3"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="36"/>
-      <c r="B43" s="21">
+      <c r="A43" s="21"/>
+      <c r="B43" s="47">
         <v>41067</v>
       </c>
-      <c r="C43" s="19">
+      <c r="C43" s="53">
         <v>0.625</v>
       </c>
-      <c r="D43" s="19">
+      <c r="D43" s="53">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E43" s="12">
-        <v>0</v>
-      </c>
-      <c r="F43" s="12">
+      <c r="E43" s="50">
+        <v>0</v>
+      </c>
+      <c r="F43" s="50">
         <v>1</v>
       </c>
-      <c r="G43" s="12" t="s">
+      <c r="G43" s="50" t="s">
         <v>36</v>
       </c>
       <c r="H43" s="4"/>
-      <c r="I43" s="25"/>
+      <c r="I43" s="59"/>
       <c r="J43" s="4"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="36"/>
-      <c r="B44" s="44"/>
-      <c r="C44" s="46"/>
-      <c r="D44" s="45"/>
-      <c r="E44" s="46"/>
-      <c r="F44" s="46"/>
-      <c r="G44" s="46"/>
+      <c r="A44" s="21"/>
+      <c r="B44" s="49"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="54"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="51"/>
+      <c r="G44" s="51"/>
       <c r="H44" s="4"/>
-      <c r="I44" s="43"/>
+      <c r="I44" s="60"/>
       <c r="J44" s="4"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="36"/>
-      <c r="B45" s="44"/>
-      <c r="C45" s="46"/>
-      <c r="D45" s="45"/>
-      <c r="E45" s="46"/>
-      <c r="F45" s="46"/>
-      <c r="G45" s="46"/>
+      <c r="A45" s="21"/>
+      <c r="B45" s="49"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="54"/>
+      <c r="E45" s="51"/>
+      <c r="F45" s="51"/>
+      <c r="G45" s="51"/>
       <c r="H45" s="4"/>
-      <c r="I45" s="43"/>
+      <c r="I45" s="60"/>
       <c r="J45" s="4"/>
     </row>
     <row r="46" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="36"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
+      <c r="A46" s="21"/>
+      <c r="B46" s="48"/>
+      <c r="C46" s="52"/>
+      <c r="D46" s="55"/>
+      <c r="E46" s="52"/>
+      <c r="F46" s="52"/>
+      <c r="G46" s="52"/>
       <c r="H46" s="3"/>
-      <c r="I46" s="26"/>
+      <c r="I46" s="61"/>
       <c r="J46" s="3"/>
     </row>
     <row r="47" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="36"/>
+      <c r="A47" s="21"/>
       <c r="B47" s="6">
         <v>41069</v>
       </c>
@@ -1734,7 +1740,7 @@
       <c r="J47" s="3"/>
     </row>
     <row r="48" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="36"/>
+      <c r="A48" s="21"/>
       <c r="B48" s="6">
         <v>41069</v>
       </c>
@@ -1758,8 +1764,8 @@
       <c r="J48" s="3"/>
     </row>
     <row r="49" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="36"/>
-      <c r="B49" s="38"/>
+      <c r="A49" s="21"/>
+      <c r="B49" s="23"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="3"/>
@@ -1770,8 +1776,8 @@
       <c r="J49" s="3"/>
     </row>
     <row r="50" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="36"/>
-      <c r="B50" s="38"/>
+      <c r="A50" s="21"/>
+      <c r="B50" s="23"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="3"/>
@@ -1782,7 +1788,7 @@
       <c r="J50" s="3"/>
     </row>
     <row r="51" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="37"/>
+      <c r="A51" s="22"/>
       <c r="B51" s="1"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -1794,293 +1800,293 @@
       <c r="J51" s="3"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="14">
+      <c r="A52" s="65">
         <v>5</v>
       </c>
-      <c r="B52" s="21">
+      <c r="B52" s="47">
         <v>41075</v>
       </c>
-      <c r="C52" s="23">
+      <c r="C52" s="56">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D52" s="23">
+      <c r="D52" s="56">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E52" s="25">
-        <v>0</v>
-      </c>
-      <c r="F52" s="25">
+      <c r="E52" s="59">
+        <v>0</v>
+      </c>
+      <c r="F52" s="59">
         <v>3</v>
       </c>
-      <c r="G52" s="25" t="s">
+      <c r="G52" s="59" t="s">
         <v>38</v>
       </c>
       <c r="H52" s="4"/>
-      <c r="I52" s="25"/>
-      <c r="J52" s="25"/>
+      <c r="I52" s="59"/>
+      <c r="J52" s="59"/>
     </row>
     <row r="53" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="15"/>
-      <c r="B53" s="44"/>
-      <c r="C53" s="51"/>
-      <c r="D53" s="51"/>
-      <c r="E53" s="43"/>
-      <c r="F53" s="43"/>
-      <c r="G53" s="43"/>
+      <c r="A53" s="66"/>
+      <c r="B53" s="49"/>
+      <c r="C53" s="57"/>
+      <c r="D53" s="57"/>
+      <c r="E53" s="60"/>
+      <c r="F53" s="60"/>
+      <c r="G53" s="60"/>
       <c r="H53" s="4"/>
-      <c r="I53" s="43"/>
-      <c r="J53" s="43"/>
+      <c r="I53" s="60"/>
+      <c r="J53" s="60"/>
     </row>
     <row r="54" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="15"/>
-      <c r="B54" s="44"/>
-      <c r="C54" s="51"/>
-      <c r="D54" s="51"/>
-      <c r="E54" s="43"/>
-      <c r="F54" s="43"/>
-      <c r="G54" s="43"/>
+      <c r="A54" s="66"/>
+      <c r="B54" s="49"/>
+      <c r="C54" s="57"/>
+      <c r="D54" s="57"/>
+      <c r="E54" s="60"/>
+      <c r="F54" s="60"/>
+      <c r="G54" s="60"/>
       <c r="H54" s="4"/>
-      <c r="I54" s="43"/>
-      <c r="J54" s="43"/>
+      <c r="I54" s="60"/>
+      <c r="J54" s="60"/>
     </row>
     <row r="55" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="16"/>
-      <c r="B55" s="22"/>
-      <c r="C55" s="24"/>
-      <c r="D55" s="24"/>
-      <c r="E55" s="26"/>
-      <c r="F55" s="26"/>
-      <c r="G55" s="26"/>
+      <c r="A55" s="67"/>
+      <c r="B55" s="48"/>
+      <c r="C55" s="58"/>
+      <c r="D55" s="58"/>
+      <c r="E55" s="61"/>
+      <c r="F55" s="61"/>
+      <c r="G55" s="61"/>
       <c r="H55" s="3"/>
-      <c r="I55" s="26"/>
-      <c r="J55" s="26"/>
+      <c r="I55" s="61"/>
+      <c r="J55" s="61"/>
     </row>
     <row r="56" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="14">
+      <c r="A56" s="65">
         <v>6</v>
       </c>
-      <c r="B56" s="21">
+      <c r="B56" s="47">
         <v>41077</v>
       </c>
-      <c r="C56" s="19">
+      <c r="C56" s="53">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D56" s="19">
+      <c r="D56" s="53">
         <v>0.70833333333333337</v>
       </c>
-      <c r="E56" s="12">
-        <v>0</v>
-      </c>
-      <c r="F56" s="12">
+      <c r="E56" s="50">
+        <v>0</v>
+      </c>
+      <c r="F56" s="50">
         <v>4</v>
       </c>
-      <c r="G56" s="12" t="s">
+      <c r="G56" s="50" t="s">
         <v>39</v>
       </c>
       <c r="H56" s="4"/>
-      <c r="I56" s="25"/>
-      <c r="J56" s="25"/>
+      <c r="I56" s="59"/>
+      <c r="J56" s="59"/>
     </row>
     <row r="57" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="15"/>
-      <c r="B57" s="44"/>
-      <c r="C57" s="20"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
+      <c r="A57" s="66"/>
+      <c r="B57" s="49"/>
+      <c r="C57" s="55"/>
+      <c r="D57" s="55"/>
+      <c r="E57" s="52"/>
+      <c r="F57" s="52"/>
+      <c r="G57" s="52"/>
       <c r="H57" s="4"/>
-      <c r="I57" s="43"/>
-      <c r="J57" s="43"/>
+      <c r="I57" s="60"/>
+      <c r="J57" s="60"/>
     </row>
     <row r="58" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="15"/>
-      <c r="B58" s="38">
+      <c r="A58" s="66"/>
+      <c r="B58" s="23">
         <v>41078</v>
       </c>
-      <c r="C58" s="39">
+      <c r="C58" s="24">
         <v>0.35416666666666669</v>
       </c>
-      <c r="D58" s="39">
+      <c r="D58" s="24">
         <v>0.45833333333333331</v>
       </c>
-      <c r="E58" s="40">
-        <v>0</v>
-      </c>
-      <c r="F58" s="40">
+      <c r="E58" s="25">
+        <v>0</v>
+      </c>
+      <c r="F58" s="25">
         <v>2.5</v>
       </c>
-      <c r="G58" s="40" t="s">
+      <c r="G58" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="H58" s="40"/>
-      <c r="I58" s="40"/>
-      <c r="J58" s="40"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="25"/>
     </row>
     <row r="59" spans="1:10" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="15"/>
-      <c r="B59" s="38">
+      <c r="A59" s="66"/>
+      <c r="B59" s="23">
         <v>41079</v>
       </c>
-      <c r="C59" s="39">
+      <c r="C59" s="24">
         <v>0.375</v>
       </c>
-      <c r="D59" s="39">
+      <c r="D59" s="24">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E59" s="40">
-        <v>0</v>
-      </c>
-      <c r="F59" s="40">
+      <c r="E59" s="25">
+        <v>0</v>
+      </c>
+      <c r="F59" s="25">
         <v>1</v>
       </c>
-      <c r="G59" s="40" t="s">
+      <c r="G59" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="H59" s="40" t="s">
+      <c r="H59" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="I59" s="40"/>
-      <c r="J59" s="40"/>
+      <c r="I59" s="25"/>
+      <c r="J59" s="25"/>
     </row>
     <row r="60" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="15"/>
-      <c r="B60" s="38">
+      <c r="A60" s="66"/>
+      <c r="B60" s="23">
         <v>41079</v>
       </c>
-      <c r="C60" s="39">
+      <c r="C60" s="24">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D60" s="39">
+      <c r="D60" s="24">
         <v>0.75</v>
       </c>
-      <c r="E60" s="40">
-        <v>0</v>
-      </c>
-      <c r="F60" s="40">
+      <c r="E60" s="25">
+        <v>0</v>
+      </c>
+      <c r="F60" s="25">
         <v>5</v>
       </c>
-      <c r="G60" s="40" t="s">
+      <c r="G60" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="H60" s="40"/>
-      <c r="I60" s="40"/>
-      <c r="J60" s="40"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="25"/>
     </row>
     <row r="61" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="15"/>
-      <c r="B61" s="38">
+      <c r="A61" s="66"/>
+      <c r="B61" s="23">
         <v>41080</v>
       </c>
-      <c r="C61" s="39">
+      <c r="C61" s="24">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D61" s="39">
+      <c r="D61" s="24">
         <v>0.75</v>
       </c>
-      <c r="E61" s="40">
-        <v>0</v>
-      </c>
-      <c r="F61" s="40">
+      <c r="E61" s="25">
+        <v>0</v>
+      </c>
+      <c r="F61" s="25">
         <v>5</v>
       </c>
-      <c r="G61" s="40" t="s">
+      <c r="G61" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="H61" s="40"/>
-      <c r="I61" s="40"/>
-      <c r="J61" s="40"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="25"/>
     </row>
     <row r="62" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="15"/>
-      <c r="B62" s="38">
+      <c r="A62" s="66"/>
+      <c r="B62" s="23">
         <v>41081</v>
       </c>
-      <c r="C62" s="39">
+      <c r="C62" s="24">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D62" s="39">
+      <c r="D62" s="24">
         <v>0.60416666666666663</v>
       </c>
-      <c r="E62" s="40">
-        <v>0</v>
-      </c>
-      <c r="F62" s="40">
+      <c r="E62" s="25">
+        <v>0</v>
+      </c>
+      <c r="F62" s="25">
         <v>1.5</v>
       </c>
-      <c r="G62" s="40" t="s">
+      <c r="G62" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="H62" s="40"/>
-      <c r="I62" s="40"/>
-      <c r="J62" s="40"/>
+      <c r="H62" s="25"/>
+      <c r="I62" s="25"/>
+      <c r="J62" s="25"/>
     </row>
     <row r="63" spans="1:10" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="15"/>
-      <c r="B63" s="38">
+      <c r="A63" s="66"/>
+      <c r="B63" s="23">
         <v>40351</v>
       </c>
-      <c r="C63" s="39">
+      <c r="C63" s="24">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D63" s="52">
+      <c r="D63" s="32">
         <v>0.75</v>
       </c>
-      <c r="E63" s="53">
-        <v>0</v>
-      </c>
-      <c r="F63" s="53">
+      <c r="E63" s="33">
+        <v>0</v>
+      </c>
+      <c r="F63" s="33">
         <v>5</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>44</v>
       </c>
       <c r="H63" s="4"/>
-      <c r="I63" s="54"/>
+      <c r="I63" s="34"/>
       <c r="J63" s="4"/>
     </row>
     <row r="64" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="15"/>
-      <c r="B64" s="38">
+      <c r="A64" s="66"/>
+      <c r="B64" s="23">
         <v>40352</v>
       </c>
-      <c r="C64" s="52">
+      <c r="C64" s="32">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D64" s="52">
+      <c r="D64" s="32">
         <v>0.70833333333333337</v>
       </c>
-      <c r="E64" s="53">
-        <v>0</v>
-      </c>
-      <c r="F64" s="53">
+      <c r="E64" s="33">
+        <v>0</v>
+      </c>
+      <c r="F64" s="33">
         <v>4</v>
       </c>
-      <c r="G64" s="42" t="s">
+      <c r="G64" s="27" t="s">
         <v>45</v>
       </c>
       <c r="H64" s="4"/>
-      <c r="I64" s="54"/>
+      <c r="I64" s="34"/>
       <c r="J64" s="4"/>
     </row>
     <row r="65" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="16"/>
+      <c r="A65" s="67"/>
       <c r="B65" s="7">
         <v>41084</v>
       </c>
-      <c r="C65" s="55">
+      <c r="C65" s="35">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D65" s="55">
+      <c r="D65" s="35">
         <v>0.70833333333333337</v>
       </c>
-      <c r="E65" s="56">
-        <v>0</v>
-      </c>
-      <c r="F65" s="56">
+      <c r="E65" s="36">
+        <v>0</v>
+      </c>
+      <c r="F65" s="36">
         <v>4</v>
       </c>
-      <c r="G65" s="42" t="s">
+      <c r="G65" s="27" t="s">
         <v>45</v>
       </c>
       <c r="H65" s="4"/>
@@ -2088,34 +2094,34 @@
       <c r="J65" s="4"/>
     </row>
     <row r="66" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="14">
+      <c r="A66" s="65">
         <v>7</v>
       </c>
-      <c r="B66" s="38">
+      <c r="B66" s="23">
         <v>41085</v>
       </c>
-      <c r="C66" s="39">
+      <c r="C66" s="24">
         <v>0.375</v>
       </c>
-      <c r="D66" s="39">
+      <c r="D66" s="24">
         <v>0.45833333333333331</v>
       </c>
-      <c r="E66" s="40">
-        <v>0</v>
-      </c>
-      <c r="F66" s="40">
+      <c r="E66" s="25">
+        <v>0</v>
+      </c>
+      <c r="F66" s="25">
         <v>2</v>
       </c>
-      <c r="G66" s="42" t="s">
+      <c r="G66" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="H66" s="40"/>
-      <c r="I66" s="40"/>
-      <c r="J66" s="40"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="25"/>
+      <c r="J66" s="25"/>
     </row>
     <row r="67" spans="1:10" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="15"/>
-      <c r="B67" s="38">
+      <c r="A67" s="66"/>
+      <c r="B67" s="23">
         <v>41085</v>
       </c>
       <c r="C67" s="2">
@@ -2130,7 +2136,7 @@
       <c r="F67" s="3">
         <v>5</v>
       </c>
-      <c r="G67" s="42" t="s">
+      <c r="G67" s="27" t="s">
         <v>49</v>
       </c>
       <c r="H67" s="3"/>
@@ -2138,17 +2144,17 @@
       <c r="J67" s="3"/>
     </row>
     <row r="68" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="15"/>
+      <c r="A68" s="66"/>
       <c r="B68" s="6">
         <v>41086</v>
       </c>
-      <c r="C68" s="50">
+      <c r="C68" s="31">
         <v>0.375</v>
       </c>
-      <c r="D68" s="50">
+      <c r="D68" s="31">
         <v>0.45833333333333331</v>
       </c>
-      <c r="E68" s="42">
+      <c r="E68" s="27">
         <v>0</v>
       </c>
       <c r="F68" s="4">
@@ -2162,7 +2168,7 @@
       <c r="J68" s="4"/>
     </row>
     <row r="69" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="15"/>
+      <c r="A69" s="66"/>
       <c r="B69" s="6">
         <v>41086</v>
       </c>
@@ -2186,47 +2192,47 @@
       <c r="J69" s="4"/>
     </row>
     <row r="70" spans="1:10" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="15"/>
-      <c r="B70" s="38">
+      <c r="A70" s="66"/>
+      <c r="B70" s="23">
         <v>41086</v>
       </c>
-      <c r="C70" s="39">
+      <c r="C70" s="24">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D70" s="39">
+      <c r="D70" s="24">
         <v>0.72916666666666663</v>
       </c>
-      <c r="E70" s="40">
-        <v>0</v>
-      </c>
-      <c r="F70" s="40">
+      <c r="E70" s="25">
+        <v>0</v>
+      </c>
+      <c r="F70" s="25">
         <v>1.5</v>
       </c>
-      <c r="G70" s="42" t="s">
+      <c r="G70" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="H70" s="40"/>
-      <c r="I70" s="40"/>
-      <c r="J70" s="40"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="25"/>
+      <c r="J70" s="25"/>
     </row>
     <row r="71" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="15"/>
-      <c r="B71" s="57">
+      <c r="A71" s="66"/>
+      <c r="B71" s="37">
         <v>41086</v>
       </c>
-      <c r="C71" s="58">
+      <c r="C71" s="38">
         <v>0.79166666666666663</v>
       </c>
-      <c r="D71" s="55">
+      <c r="D71" s="35">
         <v>0.91666666666666663</v>
       </c>
-      <c r="E71" s="56">
+      <c r="E71" s="36">
         <v>0</v>
       </c>
       <c r="F71" s="4">
         <v>3</v>
       </c>
-      <c r="G71" s="56" t="s">
+      <c r="G71" s="36" t="s">
         <v>50</v>
       </c>
       <c r="H71" s="4"/>
@@ -2234,31 +2240,31 @@
       <c r="J71" s="4"/>
     </row>
     <row r="72" spans="1:10" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="15"/>
-      <c r="B72" s="38">
+      <c r="A72" s="66"/>
+      <c r="B72" s="23">
         <v>41087</v>
       </c>
-      <c r="C72" s="59">
+      <c r="C72" s="39">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D72" s="59">
+      <c r="D72" s="39">
         <v>0.75</v>
       </c>
-      <c r="E72" s="60">
-        <v>0</v>
-      </c>
-      <c r="F72" s="60">
+      <c r="E72" s="40">
+        <v>0</v>
+      </c>
+      <c r="F72" s="40">
         <v>5</v>
       </c>
-      <c r="G72" s="42" t="s">
+      <c r="G72" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="H72" s="40"/>
-      <c r="I72" s="40"/>
-      <c r="J72" s="40"/>
+      <c r="H72" s="25"/>
+      <c r="I72" s="25"/>
+      <c r="J72" s="25"/>
     </row>
     <row r="73" spans="1:10" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="15"/>
+      <c r="A73" s="66"/>
       <c r="B73" s="1">
         <v>41088</v>
       </c>
@@ -2274,7 +2280,7 @@
       <c r="F73" s="3">
         <v>4</v>
       </c>
-      <c r="G73" s="42" t="s">
+      <c r="G73" s="27" t="s">
         <v>52</v>
       </c>
       <c r="H73" s="3"/>
@@ -2282,38 +2288,38 @@
       <c r="J73" s="3"/>
     </row>
     <row r="74" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="15"/>
-      <c r="B74" s="38">
+      <c r="A74" s="66"/>
+      <c r="B74" s="23">
         <v>41088</v>
       </c>
-      <c r="C74" s="39">
+      <c r="C74" s="24">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D74" s="39">
+      <c r="D74" s="24">
         <v>0.91666666666666663</v>
       </c>
-      <c r="E74" s="40">
-        <v>0</v>
-      </c>
-      <c r="F74" s="40">
+      <c r="E74" s="25">
+        <v>0</v>
+      </c>
+      <c r="F74" s="25">
         <v>2</v>
       </c>
-      <c r="G74" s="40" t="s">
+      <c r="G74" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="H74" s="40"/>
-      <c r="I74" s="42"/>
-      <c r="J74" s="40"/>
+      <c r="H74" s="25"/>
+      <c r="I74" s="27"/>
+      <c r="J74" s="25"/>
     </row>
     <row r="75" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="15"/>
-      <c r="B75" s="57">
+      <c r="A75" s="66"/>
+      <c r="B75" s="37">
         <v>41089</v>
       </c>
-      <c r="C75" s="50">
+      <c r="C75" s="31">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D75" s="50">
+      <c r="D75" s="31">
         <v>0.79166666666666663</v>
       </c>
       <c r="E75" s="4">
@@ -2322,293 +2328,317 @@
       <c r="F75" s="4">
         <v>6</v>
       </c>
-      <c r="G75" s="54" t="s">
+      <c r="G75" s="34" t="s">
         <v>54</v>
       </c>
       <c r="H75" s="4"/>
-      <c r="I75" s="54"/>
+      <c r="I75" s="34"/>
       <c r="J75" s="4"/>
     </row>
     <row r="76" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="15"/>
-      <c r="B76" s="38">
+      <c r="A76" s="66"/>
+      <c r="B76" s="23">
         <v>41090</v>
       </c>
-      <c r="C76" s="39">
+      <c r="C76" s="24">
         <v>0.375</v>
       </c>
-      <c r="D76" s="39">
+      <c r="D76" s="24">
         <v>0.45833333333333331</v>
       </c>
-      <c r="E76" s="40">
-        <v>0</v>
-      </c>
-      <c r="F76" s="40">
+      <c r="E76" s="25">
+        <v>0</v>
+      </c>
+      <c r="F76" s="25">
         <v>2</v>
       </c>
-      <c r="G76" s="40" t="s">
+      <c r="G76" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="H76" s="40"/>
-      <c r="I76" s="42"/>
-      <c r="J76" s="40"/>
+      <c r="H76" s="25"/>
+      <c r="I76" s="27"/>
+      <c r="J76" s="25"/>
     </row>
     <row r="77" spans="1:10" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="15"/>
-      <c r="B77" s="38">
+      <c r="A77" s="66"/>
+      <c r="B77" s="23">
         <v>41090</v>
       </c>
-      <c r="C77" s="39">
+      <c r="C77" s="24">
         <v>0.4993055555555555</v>
       </c>
-      <c r="D77" s="59">
+      <c r="D77" s="39">
         <v>0.83333333333333337</v>
       </c>
-      <c r="E77" s="60">
-        <v>0</v>
-      </c>
-      <c r="F77" s="60">
+      <c r="E77" s="40">
+        <v>0</v>
+      </c>
+      <c r="F77" s="40">
         <v>8</v>
       </c>
-      <c r="G77" s="42" t="s">
+      <c r="G77" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="H77" s="40"/>
-      <c r="I77" s="42"/>
-      <c r="J77" s="40"/>
+      <c r="H77" s="25"/>
+      <c r="I77" s="27"/>
+      <c r="J77" s="25"/>
     </row>
     <row r="78" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="16"/>
-      <c r="B78" s="38">
+      <c r="A78" s="67"/>
+      <c r="B78" s="23">
         <v>41091</v>
       </c>
-      <c r="C78" s="59">
+      <c r="C78" s="39">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D78" s="59">
+      <c r="D78" s="39">
         <v>0.70833333333333337</v>
       </c>
-      <c r="E78" s="60">
-        <v>0</v>
-      </c>
-      <c r="F78" s="60">
+      <c r="E78" s="40">
+        <v>0</v>
+      </c>
+      <c r="F78" s="40">
         <v>4</v>
       </c>
-      <c r="G78" s="60" t="s">
+      <c r="G78" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="H78" s="40"/>
-      <c r="I78" s="42"/>
-      <c r="J78" s="40"/>
+      <c r="H78" s="25"/>
+      <c r="I78" s="27"/>
+      <c r="J78" s="25"/>
     </row>
     <row r="79" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="61">
+      <c r="A79" s="41">
         <v>8</v>
       </c>
-      <c r="B79" s="38">
+      <c r="B79" s="23">
         <v>41092</v>
       </c>
-      <c r="C79" s="39">
+      <c r="C79" s="24">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D79" s="39">
+      <c r="D79" s="24">
         <v>0.79166666666666663</v>
       </c>
-      <c r="E79" s="40">
-        <v>0</v>
-      </c>
-      <c r="F79" s="40">
+      <c r="E79" s="25">
+        <v>0</v>
+      </c>
+      <c r="F79" s="25">
         <v>6</v>
       </c>
-      <c r="G79" s="42" t="s">
+      <c r="G79" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="H79" s="40"/>
-      <c r="I79" s="40"/>
-      <c r="J79" s="40"/>
+      <c r="H79" s="25"/>
+      <c r="I79" s="25"/>
+      <c r="J79" s="25"/>
     </row>
     <row r="80" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="36"/>
-      <c r="B80" s="38">
+      <c r="A80" s="21"/>
+      <c r="B80" s="23">
         <v>41092</v>
       </c>
-      <c r="C80" s="39">
+      <c r="C80" s="24">
         <v>0.875</v>
       </c>
-      <c r="D80" s="39">
+      <c r="D80" s="24">
         <v>0.97916666666666663</v>
       </c>
-      <c r="E80" s="40">
-        <v>0</v>
-      </c>
-      <c r="F80" s="40">
+      <c r="E80" s="25">
+        <v>0</v>
+      </c>
+      <c r="F80" s="25">
         <v>2.5</v>
       </c>
-      <c r="G80" s="40" t="s">
+      <c r="G80" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="H80" s="40"/>
-      <c r="I80" s="40"/>
-      <c r="J80" s="40"/>
-    </row>
-    <row r="81" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="36"/>
-      <c r="B81" s="38">
+      <c r="H80" s="25"/>
+      <c r="I80" s="25"/>
+      <c r="J80" s="25"/>
+    </row>
+    <row r="81" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="21"/>
+      <c r="B81" s="23">
         <v>41093</v>
       </c>
-      <c r="C81" s="39">
+      <c r="C81" s="24">
         <v>0.375</v>
       </c>
-      <c r="D81" s="39">
+      <c r="D81" s="24">
         <v>0.45833333333333331</v>
       </c>
-      <c r="E81" s="40">
-        <v>0</v>
-      </c>
-      <c r="F81" s="40">
+      <c r="E81" s="25">
+        <v>0</v>
+      </c>
+      <c r="F81" s="25">
         <v>2</v>
       </c>
-      <c r="G81" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="H81" s="42"/>
-      <c r="I81" s="42"/>
-      <c r="J81" s="42"/>
+      <c r="G81" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="H81" s="27"/>
+      <c r="I81" s="27"/>
+      <c r="J81" s="27"/>
     </row>
     <row r="82" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="36"/>
-      <c r="B82" s="38">
+      <c r="A82" s="21"/>
+      <c r="B82" s="23">
         <v>41093</v>
       </c>
-      <c r="C82" s="39">
+      <c r="C82" s="24">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D82" s="39">
+      <c r="D82" s="24">
         <v>0.83333333333333337</v>
       </c>
-      <c r="E82" s="62">
-        <v>0</v>
-      </c>
-      <c r="F82" s="62">
+      <c r="E82" s="42">
+        <v>0</v>
+      </c>
+      <c r="F82" s="42">
         <v>7</v>
       </c>
-      <c r="G82" s="42" t="s">
+      <c r="G82" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="H82" s="40"/>
-      <c r="I82" s="42"/>
-      <c r="J82" s="40"/>
+      <c r="H82" s="25"/>
+      <c r="I82" s="27"/>
+      <c r="J82" s="25"/>
     </row>
     <row r="83" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="36"/>
-      <c r="B83" s="38">
+      <c r="A83" s="21"/>
+      <c r="B83" s="23">
         <v>41093</v>
       </c>
-      <c r="C83" s="39">
+      <c r="C83" s="24">
         <v>0.89583333333333337</v>
       </c>
-      <c r="D83" s="39">
+      <c r="D83" s="24">
         <v>0.97916666666666663</v>
       </c>
-      <c r="E83" s="62">
-        <v>0</v>
-      </c>
-      <c r="F83" s="62">
+      <c r="E83" s="42">
+        <v>0</v>
+      </c>
+      <c r="F83" s="42">
         <v>2</v>
       </c>
-      <c r="G83" s="40" t="s">
+      <c r="G83" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="H83" s="62"/>
+      <c r="H83" s="42"/>
       <c r="I83" s="9"/>
-      <c r="J83" s="62"/>
-    </row>
-    <row r="84" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="36"/>
-      <c r="B84" s="38">
+      <c r="J83" s="42"/>
+    </row>
+    <row r="84" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="21"/>
+      <c r="B84" s="23">
         <v>41094</v>
       </c>
-      <c r="C84" s="39">
+      <c r="C84" s="24">
         <v>0.375</v>
       </c>
-      <c r="D84" s="39">
+      <c r="D84" s="24">
         <v>0.45833333333333331</v>
       </c>
-      <c r="E84" s="40">
-        <v>0</v>
-      </c>
-      <c r="F84" s="40">
+      <c r="E84" s="25">
+        <v>0</v>
+      </c>
+      <c r="F84" s="25">
         <v>2</v>
       </c>
-      <c r="G84" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="H84" s="62"/>
+      <c r="G84" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="H84" s="42"/>
       <c r="I84" s="9"/>
-      <c r="J84" s="62"/>
+      <c r="J84" s="42"/>
     </row>
     <row r="85" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="36"/>
-      <c r="B85" s="38">
+      <c r="A85" s="21"/>
+      <c r="B85" s="23">
         <v>41094</v>
       </c>
-      <c r="C85" s="39">
+      <c r="C85" s="24">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D85" s="39">
+      <c r="D85" s="24">
         <v>0.79166666666666663</v>
       </c>
-      <c r="E85" s="40">
-        <v>0</v>
-      </c>
-      <c r="F85" s="40">
+      <c r="E85" s="25">
+        <v>0</v>
+      </c>
+      <c r="F85" s="25">
         <v>6</v>
       </c>
-      <c r="G85" s="42" t="s">
+      <c r="G85" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="H85" s="40"/>
-      <c r="I85" s="42"/>
-      <c r="J85" s="40"/>
-    </row>
-    <row r="86" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="36"/>
-      <c r="B86" s="38"/>
-      <c r="C86" s="40"/>
-      <c r="D86" s="40"/>
-      <c r="E86" s="40"/>
-      <c r="F86" s="40"/>
-      <c r="G86" s="40"/>
-      <c r="H86" s="40"/>
-      <c r="I86" s="42"/>
-      <c r="J86" s="40"/>
-    </row>
-    <row r="87" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="69"/>
-      <c r="B87" s="38"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
-      <c r="G87" s="3"/>
+      <c r="H85" s="25"/>
+      <c r="I85" s="27"/>
+      <c r="J85" s="25"/>
+    </row>
+    <row r="86" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="21"/>
+      <c r="B86" s="23">
+        <v>41095</v>
+      </c>
+      <c r="C86" s="24">
+        <v>0.375</v>
+      </c>
+      <c r="D86" s="24">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E86" s="25">
+        <v>0</v>
+      </c>
+      <c r="F86" s="25">
+        <v>2</v>
+      </c>
+      <c r="G86" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="H86" s="25"/>
+      <c r="I86" s="27"/>
+      <c r="J86" s="25"/>
+    </row>
+    <row r="87" spans="1:10" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="46"/>
+      <c r="B87" s="23">
+        <v>41095</v>
+      </c>
+      <c r="C87" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D87" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E87" s="3">
+        <v>0</v>
+      </c>
+      <c r="F87" s="3">
+        <v>7</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="H87" s="3"/>
       <c r="I87" s="10"/>
       <c r="J87" s="3"/>
     </row>
     <row r="88" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="36"/>
-      <c r="B88" s="63"/>
-      <c r="C88" s="63"/>
-      <c r="D88" s="63"/>
-      <c r="E88" s="63"/>
-      <c r="F88" s="63"/>
-      <c r="G88" s="64"/>
+      <c r="A88" s="21"/>
+      <c r="B88" s="43"/>
+      <c r="C88" s="43"/>
+      <c r="D88" s="43"/>
+      <c r="E88" s="43"/>
+      <c r="F88" s="43"/>
+      <c r="G88" s="44"/>
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
     </row>
     <row r="89" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="36"/>
+      <c r="A89" s="21"/>
       <c r="B89" s="7"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
@@ -2620,7 +2650,7 @@
       <c r="J89" s="3"/>
     </row>
     <row r="90" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="37"/>
+      <c r="A90" s="22"/>
       <c r="B90" s="1"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -2632,7 +2662,7 @@
       <c r="J90" s="3"/>
     </row>
     <row r="91" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="65" t="s">
+      <c r="A91" s="45" t="s">
         <v>13</v>
       </c>
       <c r="B91" s="1"/>
@@ -2646,27 +2676,27 @@
       <c r="J91" s="3"/>
     </row>
     <row r="92" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="65"/>
-      <c r="B92" s="21"/>
-      <c r="C92" s="50"/>
-      <c r="D92" s="50"/>
+      <c r="A92" s="45"/>
+      <c r="B92" s="47"/>
+      <c r="C92" s="31"/>
+      <c r="D92" s="31"/>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
-      <c r="I92" s="25"/>
+      <c r="I92" s="59"/>
       <c r="J92" s="4"/>
     </row>
     <row r="93" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="65"/>
-      <c r="B93" s="22"/>
+      <c r="A93" s="45"/>
+      <c r="B93" s="48"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
-      <c r="I93" s="26"/>
+      <c r="I93" s="61"/>
       <c r="J93" s="3"/>
     </row>
     <row r="94" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2682,7 +2712,7 @@
       <c r="J94" s="3"/>
     </row>
     <row r="95" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="36"/>
+      <c r="A95" s="21"/>
       <c r="B95" s="1"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
@@ -2694,7 +2724,7 @@
       <c r="J95" s="3"/>
     </row>
     <row r="96" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="36"/>
+      <c r="A96" s="21"/>
       <c r="B96" s="1"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
@@ -2706,7 +2736,7 @@
       <c r="J96" s="3"/>
     </row>
     <row r="97" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="36"/>
+      <c r="A97" s="21"/>
       <c r="B97" s="1"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
@@ -2718,7 +2748,7 @@
       <c r="J97" s="3"/>
     </row>
     <row r="98" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="37"/>
+      <c r="A98" s="22"/>
       <c r="B98" s="1"/>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
@@ -2730,28 +2760,28 @@
       <c r="J98" s="3"/>
     </row>
     <row r="99" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="65"/>
-      <c r="B99" s="21"/>
-      <c r="C99" s="23"/>
-      <c r="D99" s="23"/>
-      <c r="E99" s="25"/>
-      <c r="F99" s="25"/>
-      <c r="G99" s="25"/>
+      <c r="A99" s="45"/>
+      <c r="B99" s="47"/>
+      <c r="C99" s="56"/>
+      <c r="D99" s="56"/>
+      <c r="E99" s="59"/>
+      <c r="F99" s="59"/>
+      <c r="G99" s="59"/>
       <c r="H99" s="4"/>
-      <c r="I99" s="25"/>
-      <c r="J99" s="25"/>
+      <c r="I99" s="59"/>
+      <c r="J99" s="59"/>
     </row>
     <row r="100" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="65"/>
-      <c r="B100" s="22"/>
-      <c r="C100" s="24"/>
-      <c r="D100" s="24"/>
-      <c r="E100" s="26"/>
-      <c r="F100" s="26"/>
-      <c r="G100" s="26"/>
+      <c r="A100" s="45"/>
+      <c r="B100" s="48"/>
+      <c r="C100" s="58"/>
+      <c r="D100" s="58"/>
+      <c r="E100" s="61"/>
+      <c r="F100" s="61"/>
+      <c r="G100" s="61"/>
       <c r="H100" s="3"/>
-      <c r="I100" s="26"/>
-      <c r="J100" s="26"/>
+      <c r="I100" s="61"/>
+      <c r="J100" s="61"/>
     </row>
     <row r="101" spans="1:10" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="11"/>
@@ -2766,31 +2796,31 @@
       <c r="J101" s="9"/>
     </row>
     <row r="102" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="36"/>
+      <c r="A102" s="21"/>
       <c r="B102" s="6"/>
       <c r="C102" s="8"/>
       <c r="D102" s="8"/>
       <c r="E102" s="9"/>
       <c r="F102" s="9"/>
       <c r="G102" s="9"/>
-      <c r="H102" s="42"/>
+      <c r="H102" s="27"/>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
     </row>
     <row r="103" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="36"/>
-      <c r="B103" s="38"/>
-      <c r="C103" s="39"/>
-      <c r="D103" s="39"/>
-      <c r="E103" s="40"/>
-      <c r="F103" s="40"/>
-      <c r="G103" s="40"/>
-      <c r="H103" s="40"/>
-      <c r="I103" s="40"/>
-      <c r="J103" s="40"/>
+      <c r="A103" s="21"/>
+      <c r="B103" s="23"/>
+      <c r="C103" s="24"/>
+      <c r="D103" s="24"/>
+      <c r="E103" s="25"/>
+      <c r="F103" s="25"/>
+      <c r="G103" s="25"/>
+      <c r="H103" s="25"/>
+      <c r="I103" s="25"/>
+      <c r="J103" s="25"/>
     </row>
     <row r="104" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="36"/>
+      <c r="A104" s="21"/>
       <c r="B104" s="1"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
@@ -2802,7 +2832,7 @@
       <c r="J104" s="3"/>
     </row>
     <row r="105" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="36"/>
+      <c r="A105" s="21"/>
       <c r="B105" s="1"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
@@ -2814,7 +2844,7 @@
       <c r="J105" s="3"/>
     </row>
     <row r="106" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="37"/>
+      <c r="A106" s="22"/>
       <c r="B106" s="1"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
@@ -2826,7 +2856,7 @@
       <c r="J106" s="3"/>
     </row>
     <row r="107" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="65" t="s">
+      <c r="A107" s="45" t="s">
         <v>11</v>
       </c>
       <c r="B107" s="1"/>
@@ -2840,7 +2870,7 @@
       <c r="J107" s="3"/>
     </row>
     <row r="108" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="65"/>
+      <c r="A108" s="45"/>
       <c r="B108" s="1"/>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
@@ -2852,7 +2882,7 @@
       <c r="J108" s="3"/>
     </row>
     <row r="109" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="65"/>
+      <c r="A109" s="45"/>
       <c r="B109" s="1"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
@@ -2864,7 +2894,7 @@
       <c r="J109" s="3"/>
     </row>
     <row r="110" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="65">
+      <c r="A110" s="45">
         <v>9</v>
       </c>
       <c r="B110" s="1"/>
@@ -2878,7 +2908,7 @@
       <c r="J110" s="3"/>
     </row>
     <row r="111" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="36"/>
+      <c r="A111" s="21"/>
       <c r="B111" s="1"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
@@ -2890,7 +2920,7 @@
       <c r="J111" s="3"/>
     </row>
     <row r="112" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="36"/>
+      <c r="A112" s="21"/>
       <c r="B112" s="1"/>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
@@ -2902,53 +2932,92 @@
       <c r="J112" s="3"/>
     </row>
     <row r="113" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="37"/>
+      <c r="A113" s="22"/>
       <c r="B113" s="1">
         <v>40367</v>
       </c>
-      <c r="C113" s="66" t="s">
+      <c r="C113" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="D113" s="67"/>
-      <c r="E113" s="67"/>
-      <c r="F113" s="67"/>
-      <c r="G113" s="67"/>
-      <c r="H113" s="67"/>
-      <c r="I113" s="67"/>
-      <c r="J113" s="68"/>
+      <c r="D113" s="63"/>
+      <c r="E113" s="63"/>
+      <c r="F113" s="63"/>
+      <c r="G113" s="63"/>
+      <c r="H113" s="63"/>
+      <c r="I113" s="63"/>
+      <c r="J113" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="123">
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="G40:G42"/>
-    <mergeCell ref="C43:C46"/>
-    <mergeCell ref="D43:D46"/>
-    <mergeCell ref="E43:E46"/>
-    <mergeCell ref="F43:F46"/>
-    <mergeCell ref="G43:G46"/>
-    <mergeCell ref="C52:C55"/>
-    <mergeCell ref="D52:D55"/>
-    <mergeCell ref="E52:E55"/>
-    <mergeCell ref="F52:F55"/>
-    <mergeCell ref="G52:G55"/>
-    <mergeCell ref="I52:I55"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="I40:I42"/>
-    <mergeCell ref="I92:I93"/>
-    <mergeCell ref="B52:B55"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="C113:J113"/>
-    <mergeCell ref="I99:I100"/>
-    <mergeCell ref="J99:J100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="I43:I46"/>
+    <mergeCell ref="A66:A78"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="I34:I36"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="A56:A65"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="F34:F36"/>
+    <mergeCell ref="G34:G36"/>
+    <mergeCell ref="H34:H36"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="I24:I25"/>
     <mergeCell ref="J27:J30"/>
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="J18:J19"/>
@@ -2973,75 +3042,36 @@
     <mergeCell ref="I37:I39"/>
     <mergeCell ref="C34:C36"/>
     <mergeCell ref="D34:D36"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="F34:F36"/>
-    <mergeCell ref="G34:G36"/>
-    <mergeCell ref="H34:H36"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="I43:I46"/>
-    <mergeCell ref="A66:A78"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="I34:I36"/>
-    <mergeCell ref="E34:E36"/>
-    <mergeCell ref="A56:A65"/>
+    <mergeCell ref="I52:I55"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="I40:I42"/>
+    <mergeCell ref="I92:I93"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="C113:J113"/>
+    <mergeCell ref="I99:I100"/>
+    <mergeCell ref="J99:J100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="G40:G42"/>
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="D43:D46"/>
+    <mergeCell ref="E43:E46"/>
+    <mergeCell ref="F43:F46"/>
+    <mergeCell ref="G43:G46"/>
+    <mergeCell ref="C52:C55"/>
+    <mergeCell ref="D52:D55"/>
+    <mergeCell ref="E52:E55"/>
+    <mergeCell ref="F52:F55"/>
+    <mergeCell ref="G52:G55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Architect and Design/Timelog/Time_log_HuyHuynh.xlsx
+++ b/Architect and Design/Timelog/Time_log_HuyHuynh.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="59">
   <si>
     <t>Week</t>
   </si>
@@ -57,9 +57,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Coding</t>
-  </si>
-  <si>
     <t xml:space="preserve">      </t>
   </si>
   <si>
@@ -75,9 +72,6 @@
     <t>Architecture &amp; Design</t>
   </si>
   <si>
-    <t>Class diagram and Database</t>
-  </si>
-  <si>
     <t xml:space="preserve">TOTAL </t>
   </si>
   <si>
@@ -195,10 +189,13 @@
     <t>Meeting with Giang Nguyen for coding (Sale function)</t>
   </si>
   <si>
-    <t>Team Meeting: Review architecture document</t>
-  </si>
-  <si>
-    <t>Fix C&amp;C View, Module View, Draw View Mapping, Decision design C&amp;C View, Decision design Module View, Architecture Decision Design</t>
+    <t xml:space="preserve"> Team Meeting</t>
+  </si>
+  <si>
+    <t>Coding And Database</t>
+  </si>
+  <si>
+    <t>Fix Architecture (Module View &amp; C&amp;C View &amp; Mapping)</t>
   </si>
 </sst>
 </file>
@@ -410,7 +407,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -532,9 +529,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -550,13 +544,37 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -571,30 +589,18 @@
     <xf numFmtId="18" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="18" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="18" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="18" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -604,20 +610,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="18" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -922,8 +916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="G88" sqref="G88"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -943,24 +937,24 @@
   <sheetData>
     <row r="2" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="E2" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="D3" s="13"/>
       <c r="L3" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G4" s="5">
         <v>41043</v>
@@ -969,10 +963,10 @@
     <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="16"/>
       <c r="L5" s="17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M5" s="17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1007,15 +1001,15 @@
         <v>9</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M6" s="20">
-        <f>SUM(F7:F12) + F16 + F20/2+F87</f>
-        <v>23</v>
+        <f>F11</f>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="65">
+      <c r="A7" s="49">
         <v>1</v>
       </c>
       <c r="B7" s="1">
@@ -1040,15 +1034,15 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="L7" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M7" s="20">
-        <f>SUM(F14:F30)</f>
-        <v>11</v>
+        <f>F9+F62</f>
+        <v>3.5</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="66"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="1">
         <v>41045</v>
       </c>
@@ -1065,23 +1059,23 @@
         <v>3.5</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="L8" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M8" s="20">
-        <f>SUM(F34:F46)+SUM(F67:F75) + SUM(F95:F104)</f>
-        <v>36</v>
+        <f>F14+F16+F18+F27+F31+F33+F34+F40+F43+F47+F48+F52+F56+F60+F61+F80+F78+F83</f>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="66"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="1">
         <v>41046</v>
       </c>
@@ -1089,29 +1083,35 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="D9" s="2">
-        <v>0.89583333333333337</v>
+        <v>0.9375</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
       </c>
       <c r="F9" s="3">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-      <c r="M9" s="20"/>
+      <c r="L9" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="M9" s="20">
+        <f>F7+F8+F10+F58+F59+F81+F76+F84+F68</f>
+        <v>19.5</v>
+      </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="66"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="1">
         <v>41047</v>
       </c>
       <c r="C10" s="2">
-        <v>0.85416666666666663</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="D10" s="2">
         <v>0.5</v>
@@ -1123,7 +1123,7 @@
         <v>3.5</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -1131,48 +1131,42 @@
       <c r="M10" s="20"/>
     </row>
     <row r="11" spans="1:13" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="66"/>
-      <c r="B11" s="68">
+      <c r="A11" s="50"/>
+      <c r="B11" s="62">
         <v>41048</v>
       </c>
-      <c r="C11" s="53">
-        <v>0.8125</v>
-      </c>
-      <c r="D11" s="53">
-        <v>0.875</v>
-      </c>
-      <c r="E11" s="50">
-        <v>0</v>
-      </c>
-      <c r="F11" s="50">
-        <v>1.5</v>
-      </c>
-      <c r="G11" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
+      <c r="C11" s="60">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D11" s="60">
+        <v>0.5</v>
+      </c>
+      <c r="E11" s="57">
+        <v>0</v>
+      </c>
+      <c r="F11" s="57">
+        <v>5</v>
+      </c>
+      <c r="G11" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
       <c r="J11" s="3"/>
       <c r="M11" s="20"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="67"/>
-      <c r="B12" s="69"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
       <c r="J12" s="3"/>
-      <c r="L12" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="M12" s="20">
-        <f>SUM(F47:F66)</f>
-        <v>41</v>
-      </c>
+      <c r="M12" s="20"/>
     </row>
     <row r="13" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
@@ -1186,162 +1180,162 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" s="12" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="M13" s="20">
-        <f xml:space="preserve"> SUM(F47:F66) + F92 + F94</f>
-        <v>41</v>
+        <f>F63+F64+F65+F66+F67+F69+F70+F71+F72+F73+F74+F75+F77+F79+F82+F85</f>
+        <v>71.5</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
-      <c r="B14" s="47">
+      <c r="B14" s="54">
         <v>41051</v>
       </c>
-      <c r="C14" s="56">
-        <v>0.875</v>
-      </c>
-      <c r="D14" s="56">
+      <c r="C14" s="52">
+        <v>0.75</v>
+      </c>
+      <c r="D14" s="52">
         <v>0.95833333333333337</v>
       </c>
-      <c r="E14" s="59">
-        <v>0</v>
-      </c>
-      <c r="F14" s="59">
-        <v>2</v>
-      </c>
-      <c r="G14" s="59" t="s">
-        <v>29</v>
+      <c r="E14" s="46">
+        <v>0</v>
+      </c>
+      <c r="F14" s="46">
+        <v>5</v>
+      </c>
+      <c r="G14" s="46" t="s">
+        <v>27</v>
       </c>
       <c r="H14" s="4"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
       <c r="L14" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M14" s="20">
         <f>SUM(M6:M13)</f>
-        <v>152</v>
+        <v>176.5</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="61"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
       <c r="L15" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M15" s="20">
         <f>M14/8</f>
-        <v>19</v>
+        <v>22.0625</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>2</v>
       </c>
-      <c r="B16" s="47">
+      <c r="B16" s="54">
         <v>41052</v>
       </c>
-      <c r="C16" s="56">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="D16" s="56">
+      <c r="C16" s="52">
+        <v>0.75</v>
+      </c>
+      <c r="D16" s="52">
         <v>0.5</v>
       </c>
-      <c r="E16" s="59">
-        <v>0</v>
-      </c>
-      <c r="F16" s="59">
-        <v>5</v>
-      </c>
-      <c r="G16" s="59" t="s">
-        <v>30</v>
-      </c>
-      <c r="H16" s="50"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
+      <c r="E16" s="46">
+        <v>0</v>
+      </c>
+      <c r="F16" s="46">
+        <v>6</v>
+      </c>
+      <c r="G16" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="57"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
     </row>
     <row r="17" spans="1:10" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="21"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="21"/>
-      <c r="B18" s="47">
+      <c r="B18" s="54">
         <v>41053</v>
       </c>
-      <c r="C18" s="56">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="D18" s="56">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="E18" s="59">
-        <v>0</v>
-      </c>
-      <c r="F18" s="59">
-        <v>2</v>
-      </c>
-      <c r="G18" s="59" t="s">
-        <v>34</v>
+      <c r="C18" s="52">
+        <v>0.75</v>
+      </c>
+      <c r="D18" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="E18" s="46">
+        <v>0</v>
+      </c>
+      <c r="F18" s="46">
+        <v>6</v>
+      </c>
+      <c r="G18" s="46" t="s">
+        <v>32</v>
       </c>
       <c r="H18" s="4"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="21"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+    </row>
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21"/>
-      <c r="B20" s="47"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
-    </row>
-    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="21"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
       <c r="H21" s="3"/>
-      <c r="I21" s="61"/>
-      <c r="J21" s="61"/>
-    </row>
-    <row r="22" spans="1:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+    </row>
+    <row r="22" spans="1:10" ht="22.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="21"/>
       <c r="B22" s="6"/>
       <c r="C22" s="8"/>
@@ -1365,29 +1359,29 @@
       <c r="I23" s="25"/>
       <c r="J23" s="25"/>
     </row>
-    <row r="24" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
-      <c r="B24" s="47"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
       <c r="H24" s="4"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="59"/>
-    </row>
-    <row r="25" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+    </row>
+    <row r="25" spans="1:10" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="61"/>
-      <c r="J25" s="61"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
     </row>
     <row r="26" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
@@ -1403,99 +1397,101 @@
     </row>
     <row r="27" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
-      <c r="B27" s="47">
+      <c r="B27" s="54">
         <v>41057</v>
       </c>
-      <c r="C27" s="53">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="D27" s="53">
+      <c r="C27" s="60">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D27" s="60">
         <v>0.9375</v>
       </c>
-      <c r="E27" s="50">
-        <v>0</v>
-      </c>
-      <c r="F27" s="50">
-        <v>2</v>
-      </c>
-      <c r="G27" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="H27" s="50"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="60"/>
+      <c r="E27" s="57">
+        <v>0</v>
+      </c>
+      <c r="F27" s="57">
+        <v>4</v>
+      </c>
+      <c r="G27" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="H27" s="57"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="48"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="21"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="60"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="48"/>
     </row>
     <row r="29" spans="1:10" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="21"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="60"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="48"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="21"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="52"/>
-      <c r="J30" s="60"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="48"/>
     </row>
     <row r="31" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="21"/>
-      <c r="B31" s="49">
+      <c r="A31" s="21">
+        <v>3</v>
+      </c>
+      <c r="B31" s="55">
         <v>41058</v>
       </c>
-      <c r="C31" s="53">
+      <c r="C31" s="60">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D31" s="53">
+      <c r="D31" s="60">
         <v>0.70833333333333337</v>
       </c>
-      <c r="E31" s="50">
-        <v>0</v>
-      </c>
-      <c r="F31" s="50">
+      <c r="E31" s="57">
+        <v>0</v>
+      </c>
+      <c r="F31" s="57">
         <v>4</v>
       </c>
-      <c r="G31" s="59" t="s">
-        <v>35</v>
-      </c>
-      <c r="H31" s="59"/>
-      <c r="I31" s="59"/>
-      <c r="J31" s="59"/>
+      <c r="G31" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="21"/>
-      <c r="B32" s="49"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="61"/>
-      <c r="H32" s="61"/>
-      <c r="I32" s="61"/>
-      <c r="J32" s="61"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="47"/>
     </row>
     <row r="33" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="21"/>
@@ -1503,7 +1499,7 @@
         <v>41058</v>
       </c>
       <c r="C33" s="29">
-        <v>0.875</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="D33" s="29">
         <v>0.5</v>
@@ -1512,10 +1508,10 @@
         <v>0</v>
       </c>
       <c r="F33" s="30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G33" s="30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
@@ -1523,196 +1519,196 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="21"/>
-      <c r="B34" s="47">
+      <c r="B34" s="54">
         <v>41060</v>
       </c>
-      <c r="C34" s="53">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="D34" s="53">
+      <c r="C34" s="60">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D34" s="60">
         <v>0.70833333333333337</v>
       </c>
-      <c r="E34" s="50">
-        <v>0</v>
-      </c>
-      <c r="F34" s="50">
-        <v>3</v>
-      </c>
-      <c r="G34" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="H34" s="50"/>
-      <c r="I34" s="59"/>
-      <c r="J34" s="50"/>
+      <c r="E34" s="57">
+        <v>0</v>
+      </c>
+      <c r="F34" s="57">
+        <v>4</v>
+      </c>
+      <c r="G34" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="H34" s="57"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="57"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="21"/>
-      <c r="B35" s="49"/>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="51"/>
-      <c r="H35" s="51"/>
-      <c r="I35" s="60"/>
-      <c r="J35" s="51"/>
+      <c r="B35" s="55"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="58"/>
+      <c r="I35" s="48"/>
+      <c r="J35" s="58"/>
     </row>
     <row r="36" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="21"/>
-      <c r="B36" s="48"/>
-      <c r="C36" s="55"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="52"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="61"/>
-      <c r="J36" s="52"/>
+      <c r="B36" s="56"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="59"/>
+      <c r="H36" s="59"/>
+      <c r="I36" s="47"/>
+      <c r="J36" s="59"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="21"/>
-      <c r="B37" s="47"/>
+      <c r="B37" s="54"/>
       <c r="C37" s="31"/>
       <c r="D37" s="31"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
-      <c r="I37" s="59"/>
+      <c r="I37" s="46"/>
       <c r="J37" s="4"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="21"/>
-      <c r="B38" s="49"/>
+      <c r="B38" s="55"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
-      <c r="I38" s="60"/>
+      <c r="I38" s="48"/>
       <c r="J38" s="4"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="22"/>
-      <c r="B39" s="48"/>
+      <c r="B39" s="56"/>
       <c r="C39" s="2"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
-      <c r="I39" s="61"/>
+      <c r="I39" s="47"/>
       <c r="J39" s="3"/>
     </row>
     <row r="40" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
-      <c r="B40" s="47">
+      <c r="B40" s="54">
         <v>41066</v>
       </c>
-      <c r="C40" s="53">
-        <v>0.875</v>
-      </c>
-      <c r="D40" s="53">
-        <v>0.9375</v>
-      </c>
-      <c r="E40" s="50">
-        <v>0</v>
-      </c>
-      <c r="F40" s="50">
-        <v>1.5</v>
-      </c>
-      <c r="G40" s="50" t="s">
-        <v>36</v>
+      <c r="C40" s="60">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D40" s="60">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="E40" s="57">
+        <v>0</v>
+      </c>
+      <c r="F40" s="57">
+        <v>4.5</v>
+      </c>
+      <c r="G40" s="57" t="s">
+        <v>34</v>
       </c>
       <c r="H40" s="4"/>
-      <c r="I40" s="59"/>
+      <c r="I40" s="46"/>
       <c r="J40" s="4"/>
     </row>
     <row r="41" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
-      <c r="B41" s="49"/>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="51"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="51"/>
+      <c r="B41" s="55"/>
+      <c r="C41" s="64"/>
+      <c r="D41" s="64"/>
+      <c r="E41" s="58"/>
+      <c r="F41" s="58"/>
+      <c r="G41" s="58"/>
       <c r="H41" s="4"/>
-      <c r="I41" s="60"/>
+      <c r="I41" s="48"/>
       <c r="J41" s="4"/>
     </row>
     <row r="42" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="11">
         <v>4</v>
       </c>
-      <c r="B42" s="48"/>
-      <c r="C42" s="55"/>
-      <c r="D42" s="55"/>
-      <c r="E42" s="52"/>
-      <c r="F42" s="52"/>
-      <c r="G42" s="52"/>
+      <c r="B42" s="56"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="61"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="59"/>
       <c r="H42" s="3"/>
-      <c r="I42" s="61"/>
+      <c r="I42" s="47"/>
       <c r="J42" s="3"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="21"/>
-      <c r="B43" s="47">
+      <c r="B43" s="54">
         <v>41067</v>
       </c>
-      <c r="C43" s="53">
+      <c r="C43" s="60">
         <v>0.625</v>
       </c>
-      <c r="D43" s="53">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E43" s="50">
-        <v>0</v>
-      </c>
-      <c r="F43" s="50">
-        <v>1</v>
-      </c>
-      <c r="G43" s="50" t="s">
-        <v>36</v>
+      <c r="D43" s="60">
+        <v>0.75</v>
+      </c>
+      <c r="E43" s="57">
+        <v>0</v>
+      </c>
+      <c r="F43" s="57">
+        <v>3</v>
+      </c>
+      <c r="G43" s="57" t="s">
+        <v>34</v>
       </c>
       <c r="H43" s="4"/>
-      <c r="I43" s="59"/>
+      <c r="I43" s="46"/>
       <c r="J43" s="4"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="21"/>
-      <c r="B44" s="49"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="54"/>
-      <c r="E44" s="51"/>
-      <c r="F44" s="51"/>
-      <c r="G44" s="51"/>
+      <c r="B44" s="55"/>
+      <c r="C44" s="58"/>
+      <c r="D44" s="64"/>
+      <c r="E44" s="58"/>
+      <c r="F44" s="58"/>
+      <c r="G44" s="58"/>
       <c r="H44" s="4"/>
-      <c r="I44" s="60"/>
+      <c r="I44" s="48"/>
       <c r="J44" s="4"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="21"/>
-      <c r="B45" s="49"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="54"/>
-      <c r="E45" s="51"/>
-      <c r="F45" s="51"/>
-      <c r="G45" s="51"/>
+      <c r="B45" s="55"/>
+      <c r="C45" s="58"/>
+      <c r="D45" s="64"/>
+      <c r="E45" s="58"/>
+      <c r="F45" s="58"/>
+      <c r="G45" s="58"/>
       <c r="H45" s="4"/>
-      <c r="I45" s="60"/>
+      <c r="I45" s="48"/>
       <c r="J45" s="4"/>
     </row>
     <row r="46" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="21"/>
-      <c r="B46" s="48"/>
-      <c r="C46" s="52"/>
-      <c r="D46" s="55"/>
-      <c r="E46" s="52"/>
-      <c r="F46" s="52"/>
-      <c r="G46" s="52"/>
+      <c r="B46" s="56"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="61"/>
+      <c r="E46" s="59"/>
+      <c r="F46" s="59"/>
+      <c r="G46" s="59"/>
       <c r="H46" s="3"/>
-      <c r="I46" s="61"/>
+      <c r="I46" s="47"/>
       <c r="J46" s="3"/>
     </row>
     <row r="47" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1724,7 +1720,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="D47" s="2">
-        <v>0.58333333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="E47" s="3">
         <v>0</v>
@@ -1733,7 +1729,7 @@
         <v>2</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
@@ -1757,7 +1753,7 @@
         <v>2</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
@@ -1800,107 +1796,107 @@
       <c r="J51" s="3"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="65">
+      <c r="A52" s="49">
         <v>5</v>
       </c>
-      <c r="B52" s="47">
+      <c r="B52" s="54">
         <v>41075</v>
       </c>
-      <c r="C52" s="56">
+      <c r="C52" s="52">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D52" s="56">
+      <c r="D52" s="52">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E52" s="59">
-        <v>0</v>
-      </c>
-      <c r="F52" s="59">
+      <c r="E52" s="46">
+        <v>0</v>
+      </c>
+      <c r="F52" s="46">
         <v>3</v>
       </c>
-      <c r="G52" s="59" t="s">
-        <v>38</v>
+      <c r="G52" s="46" t="s">
+        <v>36</v>
       </c>
       <c r="H52" s="4"/>
-      <c r="I52" s="59"/>
-      <c r="J52" s="59"/>
+      <c r="I52" s="46"/>
+      <c r="J52" s="46"/>
     </row>
     <row r="53" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="66"/>
-      <c r="B53" s="49"/>
-      <c r="C53" s="57"/>
-      <c r="D53" s="57"/>
-      <c r="E53" s="60"/>
-      <c r="F53" s="60"/>
-      <c r="G53" s="60"/>
+      <c r="A53" s="50"/>
+      <c r="B53" s="55"/>
+      <c r="C53" s="68"/>
+      <c r="D53" s="68"/>
+      <c r="E53" s="48"/>
+      <c r="F53" s="48"/>
+      <c r="G53" s="48"/>
       <c r="H53" s="4"/>
-      <c r="I53" s="60"/>
-      <c r="J53" s="60"/>
+      <c r="I53" s="48"/>
+      <c r="J53" s="48"/>
     </row>
     <row r="54" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="66"/>
-      <c r="B54" s="49"/>
-      <c r="C54" s="57"/>
-      <c r="D54" s="57"/>
-      <c r="E54" s="60"/>
-      <c r="F54" s="60"/>
-      <c r="G54" s="60"/>
+      <c r="A54" s="50"/>
+      <c r="B54" s="55"/>
+      <c r="C54" s="68"/>
+      <c r="D54" s="68"/>
+      <c r="E54" s="48"/>
+      <c r="F54" s="48"/>
+      <c r="G54" s="48"/>
       <c r="H54" s="4"/>
-      <c r="I54" s="60"/>
-      <c r="J54" s="60"/>
+      <c r="I54" s="48"/>
+      <c r="J54" s="48"/>
     </row>
     <row r="55" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="67"/>
-      <c r="B55" s="48"/>
-      <c r="C55" s="58"/>
-      <c r="D55" s="58"/>
-      <c r="E55" s="61"/>
-      <c r="F55" s="61"/>
-      <c r="G55" s="61"/>
+      <c r="A55" s="51"/>
+      <c r="B55" s="56"/>
+      <c r="C55" s="53"/>
+      <c r="D55" s="53"/>
+      <c r="E55" s="47"/>
+      <c r="F55" s="47"/>
+      <c r="G55" s="47"/>
       <c r="H55" s="3"/>
-      <c r="I55" s="61"/>
-      <c r="J55" s="61"/>
+      <c r="I55" s="47"/>
+      <c r="J55" s="47"/>
     </row>
     <row r="56" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="65">
+      <c r="A56" s="49">
         <v>6</v>
       </c>
-      <c r="B56" s="47">
+      <c r="B56" s="54">
         <v>41077</v>
       </c>
-      <c r="C56" s="53">
+      <c r="C56" s="60">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D56" s="53">
+      <c r="D56" s="60">
         <v>0.70833333333333337</v>
       </c>
-      <c r="E56" s="50">
-        <v>0</v>
-      </c>
-      <c r="F56" s="50">
+      <c r="E56" s="57">
+        <v>0</v>
+      </c>
+      <c r="F56" s="57">
         <v>4</v>
       </c>
-      <c r="G56" s="50" t="s">
-        <v>39</v>
+      <c r="G56" s="57" t="s">
+        <v>37</v>
       </c>
       <c r="H56" s="4"/>
-      <c r="I56" s="59"/>
-      <c r="J56" s="59"/>
+      <c r="I56" s="46"/>
+      <c r="J56" s="46"/>
     </row>
     <row r="57" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="66"/>
-      <c r="B57" s="49"/>
-      <c r="C57" s="55"/>
-      <c r="D57" s="55"/>
-      <c r="E57" s="52"/>
-      <c r="F57" s="52"/>
-      <c r="G57" s="52"/>
+      <c r="A57" s="50"/>
+      <c r="B57" s="55"/>
+      <c r="C57" s="61"/>
+      <c r="D57" s="61"/>
+      <c r="E57" s="59"/>
+      <c r="F57" s="59"/>
+      <c r="G57" s="59"/>
       <c r="H57" s="4"/>
-      <c r="I57" s="60"/>
-      <c r="J57" s="60"/>
+      <c r="I57" s="48"/>
+      <c r="J57" s="48"/>
     </row>
     <row r="58" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="66"/>
+      <c r="A58" s="50"/>
       <c r="B58" s="23">
         <v>41078</v>
       </c>
@@ -1917,14 +1913,14 @@
         <v>2.5</v>
       </c>
       <c r="G58" s="25" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H58" s="25"/>
       <c r="I58" s="25"/>
       <c r="J58" s="25"/>
     </row>
     <row r="59" spans="1:10" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="66"/>
+      <c r="A59" s="50"/>
       <c r="B59" s="23">
         <v>41079</v>
       </c>
@@ -1941,16 +1937,16 @@
         <v>1</v>
       </c>
       <c r="G59" s="25" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H59" s="25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I59" s="25"/>
       <c r="J59" s="25"/>
     </row>
     <row r="60" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="66"/>
+      <c r="A60" s="50"/>
       <c r="B60" s="23">
         <v>41079</v>
       </c>
@@ -1967,14 +1963,14 @@
         <v>5</v>
       </c>
       <c r="G60" s="25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H60" s="25"/>
       <c r="I60" s="25"/>
       <c r="J60" s="25"/>
     </row>
     <row r="61" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="66"/>
+      <c r="A61" s="50"/>
       <c r="B61" s="23">
         <v>41080</v>
       </c>
@@ -1991,14 +1987,14 @@
         <v>5</v>
       </c>
       <c r="G61" s="25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H61" s="25"/>
       <c r="I61" s="25"/>
       <c r="J61" s="25"/>
     </row>
     <row r="62" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="66"/>
+      <c r="A62" s="50"/>
       <c r="B62" s="23">
         <v>41081</v>
       </c>
@@ -2015,14 +2011,14 @@
         <v>1.5</v>
       </c>
       <c r="G62" s="25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H62" s="25"/>
       <c r="I62" s="25"/>
       <c r="J62" s="25"/>
     </row>
     <row r="63" spans="1:10" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="66"/>
+      <c r="A63" s="50"/>
       <c r="B63" s="23">
         <v>40351</v>
       </c>
@@ -2039,14 +2035,14 @@
         <v>5</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H63" s="4"/>
       <c r="I63" s="34"/>
       <c r="J63" s="4"/>
     </row>
     <row r="64" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="66"/>
+      <c r="A64" s="50"/>
       <c r="B64" s="23">
         <v>40352</v>
       </c>
@@ -2063,14 +2059,14 @@
         <v>4</v>
       </c>
       <c r="G64" s="27" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H64" s="4"/>
       <c r="I64" s="34"/>
       <c r="J64" s="4"/>
     </row>
     <row r="65" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="67"/>
+      <c r="A65" s="51"/>
       <c r="B65" s="7">
         <v>41084</v>
       </c>
@@ -2087,14 +2083,14 @@
         <v>4</v>
       </c>
       <c r="G65" s="27" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H65" s="4"/>
       <c r="I65" s="10"/>
       <c r="J65" s="4"/>
     </row>
     <row r="66" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="65">
+      <c r="A66" s="49">
         <v>7</v>
       </c>
       <c r="B66" s="23">
@@ -2113,14 +2109,14 @@
         <v>2</v>
       </c>
       <c r="G66" s="27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H66" s="25"/>
       <c r="I66" s="25"/>
       <c r="J66" s="25"/>
     </row>
     <row r="67" spans="1:10" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="66"/>
+      <c r="A67" s="50"/>
       <c r="B67" s="23">
         <v>41085</v>
       </c>
@@ -2137,14 +2133,14 @@
         <v>5</v>
       </c>
       <c r="G67" s="27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
     </row>
     <row r="68" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="66"/>
+      <c r="A68" s="50"/>
       <c r="B68" s="6">
         <v>41086</v>
       </c>
@@ -2161,14 +2157,14 @@
         <v>2</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
     </row>
     <row r="69" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="66"/>
+      <c r="A69" s="50"/>
       <c r="B69" s="6">
         <v>41086</v>
       </c>
@@ -2185,14 +2181,14 @@
         <v>2</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
     </row>
     <row r="70" spans="1:10" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="66"/>
+      <c r="A70" s="50"/>
       <c r="B70" s="23">
         <v>41086</v>
       </c>
@@ -2209,14 +2205,14 @@
         <v>1.5</v>
       </c>
       <c r="G70" s="27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H70" s="25"/>
       <c r="I70" s="25"/>
       <c r="J70" s="25"/>
     </row>
     <row r="71" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="66"/>
+      <c r="A71" s="50"/>
       <c r="B71" s="37">
         <v>41086</v>
       </c>
@@ -2233,14 +2229,14 @@
         <v>3</v>
       </c>
       <c r="G71" s="36" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
     </row>
     <row r="72" spans="1:10" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="66"/>
+      <c r="A72" s="50"/>
       <c r="B72" s="23">
         <v>41087</v>
       </c>
@@ -2257,14 +2253,14 @@
         <v>5</v>
       </c>
       <c r="G72" s="27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H72" s="25"/>
       <c r="I72" s="25"/>
       <c r="J72" s="25"/>
     </row>
     <row r="73" spans="1:10" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="66"/>
+      <c r="A73" s="50"/>
       <c r="B73" s="1">
         <v>41088</v>
       </c>
@@ -2281,14 +2277,14 @@
         <v>4</v>
       </c>
       <c r="G73" s="27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
     </row>
     <row r="74" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="66"/>
+      <c r="A74" s="50"/>
       <c r="B74" s="23">
         <v>41088</v>
       </c>
@@ -2296,23 +2292,23 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D74" s="24">
-        <v>0.91666666666666663</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="E74" s="25">
         <v>0</v>
       </c>
       <c r="F74" s="25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G74" s="25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H74" s="25"/>
       <c r="I74" s="27"/>
       <c r="J74" s="25"/>
     </row>
     <row r="75" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="66"/>
+      <c r="A75" s="50"/>
       <c r="B75" s="37">
         <v>41089</v>
       </c>
@@ -2329,14 +2325,14 @@
         <v>6</v>
       </c>
       <c r="G75" s="34" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H75" s="4"/>
       <c r="I75" s="34"/>
       <c r="J75" s="4"/>
     </row>
     <row r="76" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="66"/>
+      <c r="A76" s="50"/>
       <c r="B76" s="23">
         <v>41090</v>
       </c>
@@ -2353,14 +2349,14 @@
         <v>2</v>
       </c>
       <c r="G76" s="25" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H76" s="25"/>
       <c r="I76" s="27"/>
       <c r="J76" s="25"/>
     </row>
     <row r="77" spans="1:10" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="66"/>
+      <c r="A77" s="50"/>
       <c r="B77" s="23">
         <v>41090</v>
       </c>
@@ -2377,14 +2373,14 @@
         <v>8</v>
       </c>
       <c r="G77" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H77" s="25"/>
       <c r="I77" s="27"/>
       <c r="J77" s="25"/>
     </row>
     <row r="78" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="67"/>
+      <c r="A78" s="51"/>
       <c r="B78" s="23">
         <v>41091</v>
       </c>
@@ -2401,14 +2397,14 @@
         <v>4</v>
       </c>
       <c r="G78" s="40" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H78" s="25"/>
       <c r="I78" s="27"/>
       <c r="J78" s="25"/>
     </row>
     <row r="79" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="41">
+      <c r="A79" s="49">
         <v>8</v>
       </c>
       <c r="B79" s="23">
@@ -2427,38 +2423,38 @@
         <v>6</v>
       </c>
       <c r="G79" s="27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H79" s="25"/>
       <c r="I79" s="25"/>
       <c r="J79" s="25"/>
     </row>
-    <row r="80" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="21"/>
+    <row r="80" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="50"/>
       <c r="B80" s="23">
         <v>41092</v>
       </c>
       <c r="C80" s="24">
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="D80" s="24">
-        <v>0.97916666666666663</v>
+        <v>6.25E-2</v>
       </c>
       <c r="E80" s="25">
         <v>0</v>
       </c>
       <c r="F80" s="25">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="G80" s="25" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H80" s="25"/>
       <c r="I80" s="25"/>
       <c r="J80" s="25"/>
     </row>
-    <row r="81" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="21"/>
+    <row r="81" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="50"/>
       <c r="B81" s="23">
         <v>41093</v>
       </c>
@@ -2475,14 +2471,14 @@
         <v>2</v>
       </c>
       <c r="G81" s="25" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="H81" s="27"/>
       <c r="I81" s="27"/>
       <c r="J81" s="27"/>
     </row>
     <row r="82" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="21"/>
+      <c r="A82" s="50"/>
       <c r="B82" s="23">
         <v>41093</v>
       </c>
@@ -2492,45 +2488,45 @@
       <c r="D82" s="24">
         <v>0.83333333333333337</v>
       </c>
-      <c r="E82" s="42">
-        <v>0</v>
-      </c>
-      <c r="F82" s="42">
+      <c r="E82" s="41">
+        <v>0</v>
+      </c>
+      <c r="F82" s="41">
         <v>7</v>
       </c>
       <c r="G82" s="27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H82" s="25"/>
       <c r="I82" s="27"/>
       <c r="J82" s="25"/>
     </row>
-    <row r="83" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="21"/>
+    <row r="83" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="50"/>
       <c r="B83" s="23">
         <v>41093</v>
       </c>
       <c r="C83" s="24">
-        <v>0.89583333333333337</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="D83" s="24">
-        <v>0.97916666666666663</v>
-      </c>
-      <c r="E83" s="42">
-        <v>0</v>
-      </c>
-      <c r="F83" s="42">
-        <v>2</v>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E83" s="41">
+        <v>0</v>
+      </c>
+      <c r="F83" s="41">
+        <v>5</v>
       </c>
       <c r="G83" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="H83" s="42"/>
+        <v>58</v>
+      </c>
+      <c r="H83" s="41"/>
       <c r="I83" s="9"/>
-      <c r="J83" s="42"/>
-    </row>
-    <row r="84" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="21"/>
+      <c r="J83" s="41"/>
+    </row>
+    <row r="84" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="50"/>
       <c r="B84" s="23">
         <v>41094</v>
       </c>
@@ -2547,14 +2543,14 @@
         <v>2</v>
       </c>
       <c r="G84" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="H84" s="42"/>
+        <v>25</v>
+      </c>
+      <c r="H84" s="41"/>
       <c r="I84" s="9"/>
-      <c r="J84" s="42"/>
+      <c r="J84" s="41"/>
     </row>
     <row r="85" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="21"/>
+      <c r="A85" s="51"/>
       <c r="B85" s="23">
         <v>41094</v>
       </c>
@@ -2571,73 +2567,49 @@
         <v>6</v>
       </c>
       <c r="G85" s="27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H85" s="25"/>
       <c r="I85" s="27"/>
       <c r="J85" s="25"/>
     </row>
-    <row r="86" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="21"/>
-      <c r="B86" s="23">
-        <v>41095</v>
-      </c>
-      <c r="C86" s="24">
-        <v>0.375</v>
-      </c>
-      <c r="D86" s="24">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="E86" s="25">
-        <v>0</v>
-      </c>
-      <c r="F86" s="25">
-        <v>2</v>
-      </c>
-      <c r="G86" s="25" t="s">
-        <v>58</v>
-      </c>
+      <c r="B86" s="23"/>
+      <c r="C86" s="25"/>
+      <c r="D86" s="25"/>
+      <c r="E86" s="25"/>
+      <c r="F86" s="25"/>
+      <c r="G86" s="25"/>
       <c r="H86" s="25"/>
       <c r="I86" s="27"/>
       <c r="J86" s="25"/>
     </row>
-    <row r="87" spans="1:10" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="46"/>
-      <c r="B87" s="23">
-        <v>41095</v>
-      </c>
-      <c r="C87" s="2">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D87" s="2">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="E87" s="3">
-        <v>0</v>
-      </c>
-      <c r="F87" s="3">
-        <v>7</v>
-      </c>
-      <c r="G87" s="3" t="s">
-        <v>59</v>
-      </c>
+    <row r="87" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="45"/>
+      <c r="B87" s="23"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
       <c r="H87" s="3"/>
       <c r="I87" s="10"/>
       <c r="J87" s="3"/>
     </row>
-    <row r="88" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="21"/>
-      <c r="B88" s="43"/>
-      <c r="C88" s="43"/>
-      <c r="D88" s="43"/>
-      <c r="E88" s="43"/>
-      <c r="F88" s="43"/>
-      <c r="G88" s="44"/>
+      <c r="B88" s="42"/>
+      <c r="C88" s="42"/>
+      <c r="D88" s="42"/>
+      <c r="E88" s="42"/>
+      <c r="F88" s="42"/>
+      <c r="G88" s="43"/>
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
     </row>
-    <row r="89" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="21"/>
       <c r="B89" s="7"/>
       <c r="C89" s="2"/>
@@ -2649,7 +2621,7 @@
       <c r="I89" s="3"/>
       <c r="J89" s="3"/>
     </row>
-    <row r="90" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="22"/>
       <c r="B90" s="1"/>
       <c r="C90" s="2"/>
@@ -2662,8 +2634,8 @@
       <c r="J90" s="3"/>
     </row>
     <row r="91" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="45" t="s">
-        <v>13</v>
+      <c r="A91" s="44" t="s">
+        <v>12</v>
       </c>
       <c r="B91" s="1"/>
       <c r="C91" s="2"/>
@@ -2676,27 +2648,27 @@
       <c r="J91" s="3"/>
     </row>
     <row r="92" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="45"/>
-      <c r="B92" s="47"/>
+      <c r="A92" s="44"/>
+      <c r="B92" s="54"/>
       <c r="C92" s="31"/>
       <c r="D92" s="31"/>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
-      <c r="I92" s="59"/>
+      <c r="I92" s="46"/>
       <c r="J92" s="4"/>
     </row>
     <row r="93" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="45"/>
-      <c r="B93" s="48"/>
+      <c r="A93" s="44"/>
+      <c r="B93" s="56"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
-      <c r="I93" s="61"/>
+      <c r="I93" s="47"/>
       <c r="J93" s="3"/>
     </row>
     <row r="94" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2760,28 +2732,28 @@
       <c r="J98" s="3"/>
     </row>
     <row r="99" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="45"/>
-      <c r="B99" s="47"/>
-      <c r="C99" s="56"/>
-      <c r="D99" s="56"/>
-      <c r="E99" s="59"/>
-      <c r="F99" s="59"/>
-      <c r="G99" s="59"/>
+      <c r="A99" s="44"/>
+      <c r="B99" s="54"/>
+      <c r="C99" s="52"/>
+      <c r="D99" s="52"/>
+      <c r="E99" s="46"/>
+      <c r="F99" s="46"/>
+      <c r="G99" s="46"/>
       <c r="H99" s="4"/>
-      <c r="I99" s="59"/>
-      <c r="J99" s="59"/>
+      <c r="I99" s="46"/>
+      <c r="J99" s="46"/>
     </row>
     <row r="100" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="45"/>
-      <c r="B100" s="48"/>
-      <c r="C100" s="58"/>
-      <c r="D100" s="58"/>
-      <c r="E100" s="61"/>
-      <c r="F100" s="61"/>
-      <c r="G100" s="61"/>
+      <c r="A100" s="44"/>
+      <c r="B100" s="56"/>
+      <c r="C100" s="53"/>
+      <c r="D100" s="53"/>
+      <c r="E100" s="47"/>
+      <c r="F100" s="47"/>
+      <c r="G100" s="47"/>
       <c r="H100" s="3"/>
-      <c r="I100" s="61"/>
-      <c r="J100" s="61"/>
+      <c r="I100" s="47"/>
+      <c r="J100" s="47"/>
     </row>
     <row r="101" spans="1:10" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="11"/>
@@ -2856,7 +2828,7 @@
       <c r="J106" s="3"/>
     </row>
     <row r="107" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="45" t="s">
+      <c r="A107" s="44" t="s">
         <v>11</v>
       </c>
       <c r="B107" s="1"/>
@@ -2870,7 +2842,7 @@
       <c r="J107" s="3"/>
     </row>
     <row r="108" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="45"/>
+      <c r="A108" s="44"/>
       <c r="B108" s="1"/>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
@@ -2882,7 +2854,7 @@
       <c r="J108" s="3"/>
     </row>
     <row r="109" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="45"/>
+      <c r="A109" s="44"/>
       <c r="B109" s="1"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
@@ -2894,7 +2866,7 @@
       <c r="J109" s="3"/>
     </row>
     <row r="110" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="45">
+      <c r="A110" s="44">
         <v>9</v>
       </c>
       <c r="B110" s="1"/>
@@ -2936,34 +2908,98 @@
       <c r="B113" s="1">
         <v>40367</v>
       </c>
-      <c r="C113" s="62" t="s">
-        <v>14</v>
-      </c>
-      <c r="D113" s="63"/>
-      <c r="E113" s="63"/>
-      <c r="F113" s="63"/>
-      <c r="G113" s="63"/>
-      <c r="H113" s="63"/>
-      <c r="I113" s="63"/>
-      <c r="J113" s="64"/>
+      <c r="C113" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="D113" s="66"/>
+      <c r="E113" s="66"/>
+      <c r="F113" s="66"/>
+      <c r="G113" s="66"/>
+      <c r="H113" s="66"/>
+      <c r="I113" s="66"/>
+      <c r="J113" s="67"/>
     </row>
   </sheetData>
-  <mergeCells count="123">
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="I43:I46"/>
-    <mergeCell ref="A66:A78"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="I34:I36"/>
-    <mergeCell ref="E34:E36"/>
-    <mergeCell ref="A56:A65"/>
+  <mergeCells count="124">
+    <mergeCell ref="A79:A85"/>
+    <mergeCell ref="I92:I93"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="C113:J113"/>
+    <mergeCell ref="I99:I100"/>
+    <mergeCell ref="J99:J100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="G40:G42"/>
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="D43:D46"/>
+    <mergeCell ref="E43:E46"/>
+    <mergeCell ref="F43:F46"/>
+    <mergeCell ref="G43:G46"/>
+    <mergeCell ref="C52:C55"/>
+    <mergeCell ref="D52:D55"/>
+    <mergeCell ref="J27:J30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="J52:J55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="J56:J57"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="E27:E30"/>
+    <mergeCell ref="F27:F30"/>
+    <mergeCell ref="G27:G30"/>
+    <mergeCell ref="H27:H30"/>
+    <mergeCell ref="I27:I30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="J34:J36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="I37:I39"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="I16:I17"/>
     <mergeCell ref="H11:H12"/>
     <mergeCell ref="I11:I12"/>
     <mergeCell ref="C56:C57"/>
@@ -2988,87 +3024,24 @@
     <mergeCell ref="B27:B30"/>
     <mergeCell ref="E31:E32"/>
     <mergeCell ref="F31:F32"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J27:J30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="J52:J55"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="I56:I57"/>
-    <mergeCell ref="J56:J57"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="E27:E30"/>
-    <mergeCell ref="F27:F30"/>
-    <mergeCell ref="G27:G30"/>
-    <mergeCell ref="H27:H30"/>
-    <mergeCell ref="I27:I30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="J34:J36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="I37:I39"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="I43:I46"/>
+    <mergeCell ref="A66:A78"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="I34:I36"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="A56:A65"/>
     <mergeCell ref="I52:I55"/>
     <mergeCell ref="B40:B42"/>
     <mergeCell ref="I40:I42"/>
-    <mergeCell ref="I92:I93"/>
-    <mergeCell ref="B52:B55"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="C113:J113"/>
-    <mergeCell ref="I99:I100"/>
-    <mergeCell ref="J99:J100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="G40:G42"/>
-    <mergeCell ref="C43:C46"/>
-    <mergeCell ref="D43:D46"/>
-    <mergeCell ref="E43:E46"/>
-    <mergeCell ref="F43:F46"/>
-    <mergeCell ref="G43:G46"/>
-    <mergeCell ref="C52:C55"/>
-    <mergeCell ref="D52:D55"/>
     <mergeCell ref="E52:E55"/>
     <mergeCell ref="F52:F55"/>
     <mergeCell ref="G52:G55"/>
